--- a/BackTest/2020-01-15 BackTest ETC.xlsx
+++ b/BackTest/2020-01-15 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2449.107383792546</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2569.087383792546</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6160</v>
@@ -523,7 +523,7 @@
         <v>-2477.363483792546</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6135</v>
@@ -562,7 +562,7 @@
         <v>-2858.530483792546</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6140</v>
@@ -601,7 +601,7 @@
         <v>-2902.163083792545</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6125</v>
@@ -640,7 +640,7 @@
         <v>-2761.925083792546</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6105</v>
@@ -679,7 +679,7 @@
         <v>-2761.925083792546</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6115</v>
@@ -718,7 +718,7 @@
         <v>-2761.925083792546</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6115</v>
@@ -757,7 +757,7 @@
         <v>-2784.898083792546</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6115</v>
@@ -796,7 +796,7 @@
         <v>-2784.898083792546</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6100</v>
@@ -835,7 +835,7 @@
         <v>-2784.898083792546</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6100</v>
@@ -874,7 +874,7 @@
         <v>-2781.571842976219</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6100</v>
@@ -913,7 +913,7 @@
         <v>-2780.251777723364</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6125</v>
@@ -952,7 +952,7 @@
         <v>-2781.251777723364</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6130</v>
@@ -991,7 +991,7 @@
         <v>-2781.251777723364</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6125</v>
@@ -1030,7 +1030,7 @@
         <v>-2781.251777723364</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6125</v>
@@ -1069,7 +1069,7 @@
         <v>-2781.251777723364</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6125</v>
@@ -1108,7 +1108,7 @@
         <v>-2781.001777723364</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6125</v>
@@ -1147,7 +1147,7 @@
         <v>-2781.001777723364</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6135</v>
@@ -1186,7 +1186,7 @@
         <v>-2780.352531981272</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6135</v>
@@ -1225,7 +1225,7 @@
         <v>-2700.172531981272</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6165</v>
@@ -1264,7 +1264,7 @@
         <v>-2700.322531981272</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6180</v>
@@ -1303,7 +1303,7 @@
         <v>-2700.322531981272</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6165</v>
@@ -1342,7 +1342,7 @@
         <v>-2736.778231981272</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6165</v>
@@ -1381,7 +1381,7 @@
         <v>-2737.228231981272</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>6160</v>
@@ -1420,7 +1420,7 @@
         <v>-2736.728231981272</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6145</v>
@@ -1459,7 +1459,7 @@
         <v>-2736.528231981272</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6150</v>
@@ -1498,7 +1498,7 @@
         <v>-2825.778231981272</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>6160</v>
@@ -1537,7 +1537,7 @@
         <v>-2825.778231981272</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>6145</v>
@@ -1576,7 +1576,7 @@
         <v>-2825.598231981272</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6145</v>
@@ -1615,7 +1615,7 @@
         <v>-2831.446331981273</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>6150</v>
@@ -1654,7 +1654,7 @@
         <v>-2731.446331981273</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>6140</v>
@@ -1693,7 +1693,7 @@
         <v>-2731.446331981273</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>6150</v>
@@ -1732,7 +1732,7 @@
         <v>-2716.446331981273</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>6150</v>
@@ -1771,7 +1771,7 @@
         <v>-2723.946331981273</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>6155</v>
@@ -1810,7 +1810,7 @@
         <v>-2774.946331981273</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>6140</v>
@@ -1849,7 +1849,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>6135</v>
@@ -1888,7 +1888,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>6145</v>
@@ -1927,7 +1927,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>6145</v>
@@ -1966,7 +1966,7 @@
         <v>-2766.619131981272</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>6145</v>
@@ -2005,7 +2005,7 @@
         <v>-2766.119131981272</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>6145</v>
@@ -2044,7 +2044,7 @@
         <v>-2766.119131981272</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>6160</v>
@@ -2083,7 +2083,7 @@
         <v>-2611.407431576414</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>6160</v>
@@ -2122,7 +2122,7 @@
         <v>-2611.287431576414</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>6175</v>
@@ -2161,9 +2161,11 @@
         <v>-2597.341931576414</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6180</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2198,9 +2200,11 @@
         <v>-2610.340931576414</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6185</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2235,9 +2239,11 @@
         <v>-2610.090731576414</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6180</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2272,9 +2278,11 @@
         <v>-2609.760731576414</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6185</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2309,9 +2317,11 @@
         <v>-2609.610731576414</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6195</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2346,9 +2356,11 @@
         <v>-2607.110731576414</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6200</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2383,9 +2395,11 @@
         <v>-2602.991431576414</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6215</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2420,9 +2434,11 @@
         <v>-2559.916731576414</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6220</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2457,9 +2473,11 @@
         <v>-2518.855931576414</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6230</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2494,9 +2512,11 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6235</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2531,9 +2551,11 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6240</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2568,9 +2590,11 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6240</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2605,9 +2629,11 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6240</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2642,9 +2668,11 @@
         <v>-2466.931831576414</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6240</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2679,9 +2707,11 @@
         <v>-2470.579231576414</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6205</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2716,7 +2746,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>6190</v>
@@ -2755,7 +2785,7 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>6215</v>
@@ -2794,9 +2824,11 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6215</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2831,9 +2863,11 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6220</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2868,9 +2902,11 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6220</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2905,9 +2941,11 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6205</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2942,9 +2980,11 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6205</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2979,9 +3019,11 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6200</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3016,9 +3058,11 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6200</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3053,9 +3097,11 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6210</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3090,9 +3136,11 @@
         <v>-2267.411731576414</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6210</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3127,9 +3175,11 @@
         <v>-2367.411731576414</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6220</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3164,9 +3214,11 @@
         <v>-2419.455231576414</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6215</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3201,9 +3253,11 @@
         <v>-2319.455231576414</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6205</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3238,9 +3292,11 @@
         <v>-1879.865131576414</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6210</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3275,9 +3331,11 @@
         <v>-1876.080231576414</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6220</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3312,9 +3370,11 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6225</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3349,9 +3409,11 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6240</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3386,9 +3448,11 @@
         <v>-531.8451315764139</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6240</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3423,9 +3487,11 @@
         <v>-547.5241315764139</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6255</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3460,9 +3526,11 @@
         <v>-247.2810315764139</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6240</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3497,9 +3565,11 @@
         <v>-247.2810315764139</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6255</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3534,9 +3604,11 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6255</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3571,9 +3643,11 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6280</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3608,9 +3682,11 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6280</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3645,9 +3721,11 @@
         <v>188.9098684235862</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6280</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3682,9 +3760,11 @@
         <v>742.7691684235862</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6300</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3719,9 +3799,11 @@
         <v>889.8191684235862</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6315</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3756,9 +3838,11 @@
         <v>889.8191684235862</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6325</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3793,9 +3877,11 @@
         <v>887.3191684235862</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6325</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3830,9 +3916,11 @@
         <v>887.3191684235862</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6305</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3867,9 +3955,11 @@
         <v>937.3191684235862</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6305</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3904,9 +3994,11 @@
         <v>1241.604868423586</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6315</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3941,9 +4033,11 @@
         <v>1241.604868423586</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6330</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3978,9 +4072,11 @@
         <v>1290.263268423586</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6330</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4015,9 +4111,11 @@
         <v>1279.323668423586</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6345</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4422,9 +4520,11 @@
         <v>1190.882181140642</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6275</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4459,9 +4559,11 @@
         <v>1200.882181140642</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6270</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4533,9 +4635,11 @@
         <v>1193.458081140642</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6275</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4570,9 +4674,11 @@
         <v>1195.458081140642</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6255</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4607,9 +4713,11 @@
         <v>388.7070811406425</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6275</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4644,9 +4752,11 @@
         <v>1320.996181140642</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6270</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4681,9 +4791,11 @@
         <v>1562.119781140642</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6280</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4718,9 +4830,11 @@
         <v>1660.819306457098</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6300</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4755,9 +4869,11 @@
         <v>1681.111306457098</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6320</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -19259,16 +19375,18 @@
         <v>23365.17667216783</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L508" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
       <c r="M508" t="inlineStr"/>
     </row>
     <row r="509">
@@ -19294,11 +19412,15 @@
         <v>23360.18917216783</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19453,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19490,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19527,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19564,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19601,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19638,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19675,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19712,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19749,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19786,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19823,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19856,15 @@
         <v>25061.44128897328</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19893,15 @@
         <v>24875.48318897328</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19930,15 @@
         <v>25369.98588897329</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19967,15 @@
         <v>26041.24658897328</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +20004,15 @@
         <v>29010.07678897329</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +20041,15 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20078,15 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20115,15 @@
         <v>32214.59722068256</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20152,15 @@
         <v>32445.62382068256</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20189,15 @@
         <v>32337.62382068256</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20226,15 @@
         <v>31703.02202068256</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20263,15 @@
         <v>31743.02202068256</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20300,15 @@
         <v>31733.02202068256</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20341,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20374,15 @@
         <v>32800.81872068256</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20411,15 @@
         <v>35592.46412068256</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20448,15 @@
         <v>38145.96282068256</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20485,15 @@
         <v>40669.37932068256</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20522,15 @@
         <v>42683.04562068255</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20559,15 @@
         <v>43560.94149015319</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20596,15 @@
         <v>47975.07049015319</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20633,15 @@
         <v>48866.52582190264</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20670,15 @@
         <v>48639.36862190264</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20707,15 @@
         <v>48823.43839008119</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20744,15 @@
         <v>49190.61609008119</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20515,14 +20781,16 @@
         <v>49190.61609008119</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="inlineStr"/>
     </row>
     <row r="547">
@@ -20548,7 +20816,7 @@
         <v>49412.04555152493</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20581,7 +20849,7 @@
         <v>53479.87805833173</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20614,7 +20882,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20647,7 +20915,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20680,7 +20948,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20713,7 +20981,7 @@
         <v>63678.58637977225</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20746,7 +21014,7 @@
         <v>64251.76259862077</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20757,6 +21025,6 @@
       <c r="M553" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ETC.xlsx
+++ b/BackTest/2020-01-15 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2512,11 +2512,9 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2551,11 +2549,9 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2590,11 +2586,9 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2629,11 +2623,9 @@
         <v>-2450.777231576414</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2668,11 +2660,9 @@
         <v>-2466.931831576414</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2707,11 +2697,9 @@
         <v>-2470.579231576414</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3409,11 +3397,9 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3448,11 +3434,9 @@
         <v>-531.8451315764139</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3471,9 @@
         <v>-547.5241315764139</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3526,11 +3508,9 @@
         <v>-247.2810315764139</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3565,11 +3545,9 @@
         <v>-247.2810315764139</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3604,11 +3582,9 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3643,11 +3619,9 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3682,11 +3656,9 @@
         <v>-83.89373157641384</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3721,11 +3693,9 @@
         <v>188.9098684235862</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3760,11 +3730,9 @@
         <v>742.7691684235862</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3799,11 +3767,9 @@
         <v>889.8191684235862</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3838,11 +3804,9 @@
         <v>889.8191684235862</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3877,11 +3841,9 @@
         <v>887.3191684235862</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3916,11 +3878,9 @@
         <v>887.3191684235862</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3955,11 +3915,9 @@
         <v>937.3191684235862</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3994,11 +3952,9 @@
         <v>1241.604868423586</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4033,11 +3989,9 @@
         <v>1241.604868423586</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4072,11 +4026,9 @@
         <v>1290.263268423586</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4111,11 +4063,9 @@
         <v>1279.323668423586</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4520,11 +4470,9 @@
         <v>1190.882181140642</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4559,11 +4507,9 @@
         <v>1200.882181140642</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4635,11 +4581,9 @@
         <v>1193.458081140642</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4674,11 +4618,9 @@
         <v>1195.458081140642</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4713,11 +4655,9 @@
         <v>388.7070811406425</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4752,11 +4692,9 @@
         <v>1320.996181140642</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4791,11 +4729,9 @@
         <v>1562.119781140642</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4830,11 +4766,9 @@
         <v>1660.819306457098</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4869,11 +4803,9 @@
         <v>1681.111306457098</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -16156,18 +16088,16 @@
         <v>27563.95957239528</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -16193,15 +16123,11 @@
         <v>28039.00347239528</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16230,15 +16156,11 @@
         <v>26864.52927239528</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16267,15 +16189,11 @@
         <v>26799.49577239528</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16304,15 +16222,11 @@
         <v>27110.36587239528</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16341,15 +16255,11 @@
         <v>29599.44447239528</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16378,15 +16288,11 @@
         <v>30066.35527239528</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16415,15 +16321,11 @@
         <v>29984.24947239528</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16452,15 +16354,11 @@
         <v>29630.91697239528</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16489,15 +16387,11 @@
         <v>30141.50847239528</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16526,15 +16420,11 @@
         <v>29749.33537216783</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16563,15 +16453,11 @@
         <v>30440.46917216783</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16600,15 +16486,11 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16637,15 +16519,11 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16674,15 +16552,11 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16711,15 +16585,11 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16748,15 +16618,11 @@
         <v>26610.11167216783</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16785,15 +16651,11 @@
         <v>26165.46787216783</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16822,15 +16684,11 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16859,15 +16717,11 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16896,15 +16750,11 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16933,15 +16783,11 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16970,15 +16816,11 @@
         <v>26017.10217216783</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17007,15 +16849,11 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17044,15 +16882,11 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17081,15 +16915,11 @@
         <v>25929.20087216783</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17118,15 +16948,11 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17155,15 +16981,11 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17196,11 +17018,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17233,11 +17051,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17270,11 +17084,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17307,11 +17117,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17344,11 +17150,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17381,11 +17183,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17418,11 +17216,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17455,11 +17249,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17492,11 +17282,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17529,11 +17315,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17566,11 +17348,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17603,11 +17381,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +17414,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17447,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17714,11 +17480,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17751,11 +17513,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17788,11 +17546,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17825,11 +17579,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17862,11 +17612,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17899,11 +17645,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17936,11 +17678,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17973,11 +17711,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18010,11 +17744,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18047,11 +17777,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18084,11 +17810,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18121,11 +17843,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18158,11 +17876,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18195,11 +17909,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18232,11 +17942,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18269,11 +17975,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18306,11 +18008,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18343,11 +18041,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18380,11 +18074,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18417,11 +18107,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18454,11 +18140,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18491,11 +18173,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18528,11 +18206,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18565,11 +18239,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18602,11 +18272,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18639,11 +18305,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18676,11 +18338,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18713,11 +18371,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18750,11 +18404,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18787,11 +18437,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18824,11 +18470,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18861,11 +18503,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +18536,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18935,11 +18569,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18972,11 +18602,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19009,11 +18635,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19046,11 +18668,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19083,11 +18701,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19120,11 +18734,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19157,11 +18767,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19194,11 +18800,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19231,11 +18833,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19268,11 +18866,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19305,11 +18899,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19342,11 +18932,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19379,11 +18965,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19416,11 +18998,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19453,11 +19031,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19490,11 +19064,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19527,11 +19097,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19564,11 +19130,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19601,11 +19163,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19638,11 +19196,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19675,11 +19229,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19712,11 +19262,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19749,11 +19295,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19782,15 +19324,11 @@
         <v>24991.63618897328</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19819,15 +19357,11 @@
         <v>25034.89248897328</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19856,15 +19390,11 @@
         <v>25061.44128897328</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19893,15 +19423,11 @@
         <v>24875.48318897328</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19930,15 +19456,11 @@
         <v>25369.98588897329</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19967,15 +19489,11 @@
         <v>26041.24658897328</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20004,15 +19522,11 @@
         <v>29010.07678897329</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20041,15 +19555,11 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20078,15 +19588,11 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20115,15 +19621,11 @@
         <v>32214.59722068256</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20152,15 +19654,11 @@
         <v>32445.62382068256</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20189,15 +19687,11 @@
         <v>32337.62382068256</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20226,15 +19720,11 @@
         <v>31703.02202068256</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20263,15 +19753,11 @@
         <v>31743.02202068256</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20300,15 +19786,11 @@
         <v>31733.02202068256</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20337,15 +19819,11 @@
         <v>31827.39882068256</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20374,15 +19852,11 @@
         <v>32800.81872068256</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20411,15 +19885,11 @@
         <v>35592.46412068256</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20448,15 +19918,11 @@
         <v>38145.96282068256</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20485,15 +19951,11 @@
         <v>40669.37932068256</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20522,15 +19984,11 @@
         <v>42683.04562068255</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20559,15 +20017,11 @@
         <v>43560.94149015319</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20596,15 +20050,11 @@
         <v>47975.07049015319</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20633,15 +20083,11 @@
         <v>48866.52582190264</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20670,15 +20116,11 @@
         <v>48639.36862190264</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20707,15 +20149,11 @@
         <v>48823.43839008119</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20748,11 +20186,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20781,16 +20215,14 @@
         <v>49190.61609008119</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
       <c r="M546" t="inlineStr"/>
     </row>
     <row r="547">
@@ -20816,7 +20248,7 @@
         <v>49412.04555152493</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20849,7 +20281,7 @@
         <v>53479.87805833173</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20882,7 +20314,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20915,7 +20347,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20948,7 +20380,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20981,7 +20413,7 @@
         <v>63678.58637977225</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21014,7 +20446,7 @@
         <v>64251.76259862077</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21025,6 +20457,6 @@
       <c r="M553" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ETC.xlsx
+++ b/BackTest/2020-01-15 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>-2449.107383792546</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-2569.087383792546</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -531,7 +525,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -2356,11 +2350,9 @@
         <v>-2607.110731576414</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2395,11 +2387,9 @@
         <v>-2602.991431576414</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2434,11 +2424,9 @@
         <v>-2559.916731576414</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2473,11 +2461,9 @@
         <v>-2518.855931576414</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2734,11 +2720,9 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2773,11 +2757,9 @@
         <v>-2390.129231576414</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2812,11 +2794,9 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2851,11 +2831,9 @@
         <v>-2188.629231576414</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2890,11 +2868,9 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2929,11 +2905,9 @@
         <v>-2613.084631576414</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2968,11 +2942,9 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3007,11 +2979,9 @@
         <v>-2713.084631576414</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3046,11 +3016,9 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3085,11 +3053,9 @@
         <v>-2516.984631576414</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3124,11 +3090,9 @@
         <v>-2267.411731576414</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3163,11 +3127,9 @@
         <v>-2367.411731576414</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3202,11 +3164,9 @@
         <v>-2419.455231576414</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3241,11 +3201,9 @@
         <v>-2319.455231576414</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3280,11 +3238,9 @@
         <v>-1879.865131576414</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3319,11 +3275,9 @@
         <v>-1876.080231576414</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3358,11 +3312,9 @@
         <v>-1838.144031576414</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -16088,16 +16040,18 @@
         <v>27563.95957239528</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L421" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
       <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -16123,11 +16077,15 @@
         <v>28039.00347239528</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16156,11 +16114,15 @@
         <v>26864.52927239528</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16189,11 +16151,15 @@
         <v>26799.49577239528</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16222,11 +16188,15 @@
         <v>27110.36587239528</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16255,11 +16225,15 @@
         <v>29599.44447239528</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16288,11 +16262,15 @@
         <v>30066.35527239528</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16321,11 +16299,15 @@
         <v>29984.24947239528</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +16336,15 @@
         <v>29630.91697239528</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16387,11 +16373,15 @@
         <v>30141.50847239528</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16420,11 +16410,15 @@
         <v>29749.33537216783</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16453,11 +16447,15 @@
         <v>30440.46917216783</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16486,11 +16484,15 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16519,11 +16521,15 @@
         <v>30437.95167216783</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16552,11 +16558,15 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16585,11 +16595,15 @@
         <v>30431.95167216783</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +16632,15 @@
         <v>26610.11167216783</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16651,11 +16669,15 @@
         <v>26165.46787216783</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +16706,15 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16717,11 +16743,15 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16750,11 +16780,15 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16783,11 +16817,15 @@
         <v>25901.84437216783</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +16854,15 @@
         <v>26017.10217216783</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16849,11 +16891,15 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16882,11 +16928,15 @@
         <v>25966.80417216783</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +16965,15 @@
         <v>25929.20087216783</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16948,11 +17002,15 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16981,11 +17039,15 @@
         <v>25842.24067216783</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17018,7 +17080,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17051,7 +17117,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17084,7 +17154,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17117,7 +17191,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17150,7 +17228,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17183,7 +17265,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17216,7 +17302,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17249,7 +17339,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17282,7 +17376,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17315,7 +17413,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17348,7 +17450,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17381,7 +17487,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17414,7 +17524,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17447,7 +17561,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17480,7 +17598,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17513,7 +17635,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17546,7 +17672,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17579,7 +17709,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17612,7 +17746,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17645,7 +17783,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +17820,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17711,7 +17857,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17744,7 +17894,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17777,7 +17931,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17810,7 +17968,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17843,7 +18005,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17876,7 +18042,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17909,7 +18079,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17942,7 +18116,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17975,7 +18153,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18008,7 +18190,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18041,7 +18227,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18074,7 +18264,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18107,7 +18301,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18140,7 +18338,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18173,7 +18375,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18206,7 +18412,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18239,7 +18449,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18272,7 +18486,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18305,7 +18523,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18338,7 +18560,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18371,7 +18597,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18404,7 +18634,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18437,7 +18671,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18470,7 +18708,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18503,7 +18745,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18536,7 +18782,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18569,7 +18819,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18602,7 +18856,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18635,7 +18893,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18668,7 +18930,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18701,7 +18967,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18734,7 +19004,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18767,7 +19041,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18800,7 +19078,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18833,7 +19115,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18866,7 +19152,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18899,7 +19189,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18932,7 +19226,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18965,7 +19263,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18998,7 +19300,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19031,7 +19337,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19064,7 +19374,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19097,7 +19411,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19130,7 +19448,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19163,7 +19485,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19196,7 +19522,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19229,7 +19559,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19262,7 +19596,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19295,7 +19633,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19324,11 +19666,15 @@
         <v>24991.63618897328</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19357,11 +19703,15 @@
         <v>25034.89248897328</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19390,11 +19740,15 @@
         <v>25061.44128897328</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19423,11 +19777,15 @@
         <v>24875.48318897328</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +19814,15 @@
         <v>25369.98588897329</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19489,11 +19851,15 @@
         <v>26041.24658897328</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19522,11 +19888,15 @@
         <v>29010.07678897329</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19555,11 +19925,15 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19588,11 +19962,15 @@
         <v>33059.03665438626</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19621,11 +19999,15 @@
         <v>32214.59722068256</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19654,11 +20036,15 @@
         <v>32445.62382068256</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19687,11 +20073,15 @@
         <v>32337.62382068256</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19720,11 +20110,15 @@
         <v>31703.02202068256</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19753,11 +20147,15 @@
         <v>31743.02202068256</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19786,11 +20184,15 @@
         <v>31733.02202068256</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19819,11 +20221,15 @@
         <v>31827.39882068256</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19852,11 +20258,15 @@
         <v>32800.81872068256</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19885,11 +20295,15 @@
         <v>35592.46412068256</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19918,11 +20332,15 @@
         <v>38145.96282068256</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19951,11 +20369,15 @@
         <v>40669.37932068256</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19984,11 +20406,15 @@
         <v>42683.04562068255</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20017,11 +20443,15 @@
         <v>43560.94149015319</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20050,11 +20480,15 @@
         <v>47975.07049015319</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20083,11 +20517,15 @@
         <v>48866.52582190264</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20116,11 +20554,15 @@
         <v>48639.36862190264</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20149,11 +20591,15 @@
         <v>48823.43839008119</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20186,7 +20632,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20219,7 +20669,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20252,7 +20706,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20285,7 +20743,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20318,7 +20780,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20347,14 +20813,16 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="inlineStr"/>
     </row>
     <row r="551">
@@ -20380,7 +20848,7 @@
         <v>64016.37715833173</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20413,7 +20881,7 @@
         <v>63678.58637977225</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20446,7 +20914,7 @@
         <v>64251.76259862077</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
